--- a/data/pca/factorExposure/factorExposure_2010-03-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0144187237856097</v>
+        <v>-0.01692366953180616</v>
       </c>
       <c r="C2">
-        <v>0.002077777234462643</v>
+        <v>-0.000989285107268735</v>
       </c>
       <c r="D2">
-        <v>-0.01113714341335886</v>
+        <v>-0.007855534555013142</v>
       </c>
       <c r="E2">
-        <v>0.01524031190076782</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.000136122959591179</v>
+      </c>
+      <c r="F2">
+        <v>0.01012840882583771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1249829655121087</v>
+        <v>-0.09334998500868841</v>
       </c>
       <c r="C4">
-        <v>0.02912238115444832</v>
+        <v>-0.01571195575167449</v>
       </c>
       <c r="D4">
-        <v>-0.05970174295402066</v>
+        <v>-0.08429496422801103</v>
       </c>
       <c r="E4">
-        <v>0.009503111639123497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.03049637803190048</v>
+      </c>
+      <c r="F4">
+        <v>-0.03173772903924171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1187741242928258</v>
+        <v>-0.1548806714107923</v>
       </c>
       <c r="C6">
-        <v>-0.02077818377390981</v>
+        <v>-0.02465548754720081</v>
       </c>
       <c r="D6">
-        <v>0.00565943355230504</v>
+        <v>0.02250458840619527</v>
       </c>
       <c r="E6">
-        <v>0.02409149244440886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01027635205182093</v>
+      </c>
+      <c r="F6">
+        <v>-0.04988635290559588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07313871830655601</v>
+        <v>-0.05938283877191845</v>
       </c>
       <c r="C7">
-        <v>0.00433242212458803</v>
+        <v>0.001044074248360026</v>
       </c>
       <c r="D7">
-        <v>-0.07091538931060457</v>
+        <v>-0.0527090460730524</v>
       </c>
       <c r="E7">
-        <v>0.0502127167741133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01411352595882051</v>
+      </c>
+      <c r="F7">
+        <v>-0.04714676734014052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05233134655214301</v>
+        <v>-0.05787838557299012</v>
       </c>
       <c r="C8">
-        <v>0.00417068229621134</v>
+        <v>0.01342649635134929</v>
       </c>
       <c r="D8">
-        <v>-0.03259862617401735</v>
+        <v>-0.03235673167554514</v>
       </c>
       <c r="E8">
-        <v>0.02188707110958779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01541854908396297</v>
+      </c>
+      <c r="F8">
+        <v>0.02747250152763789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09423298902327171</v>
+        <v>-0.07119386965879573</v>
       </c>
       <c r="C9">
-        <v>0.04014973394432785</v>
+        <v>-0.01175243628322653</v>
       </c>
       <c r="D9">
-        <v>-0.04071972684444645</v>
+        <v>-0.08420446799519499</v>
       </c>
       <c r="E9">
-        <v>0.02019487595484052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02482076183059899</v>
+      </c>
+      <c r="F9">
+        <v>-0.04990493082372367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08136786158034598</v>
+        <v>-0.0951342006740112</v>
       </c>
       <c r="C10">
-        <v>-0.1246686878475474</v>
+        <v>-0.01799188004524258</v>
       </c>
       <c r="D10">
-        <v>0.1434749298510543</v>
+        <v>0.169731289998889</v>
       </c>
       <c r="E10">
-        <v>0.01071573591627571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.04005116506415371</v>
+      </c>
+      <c r="F10">
+        <v>0.05116215006717235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08484899144936252</v>
+        <v>-0.08725134140615687</v>
       </c>
       <c r="C11">
-        <v>0.01550658199276474</v>
+        <v>-0.01148384348236618</v>
       </c>
       <c r="D11">
-        <v>-0.0570240436983273</v>
+        <v>-0.1158269445868057</v>
       </c>
       <c r="E11">
-        <v>0.04322367454499682</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04844179918083294</v>
+      </c>
+      <c r="F11">
+        <v>-0.0198893058110836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09070739885709385</v>
+        <v>-0.09176816719413057</v>
       </c>
       <c r="C12">
-        <v>0.0236530575000843</v>
+        <v>-0.008958728610924806</v>
       </c>
       <c r="D12">
-        <v>-0.07773857717865154</v>
+        <v>-0.1248908604711094</v>
       </c>
       <c r="E12">
-        <v>0.0476477809531449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04840454335322208</v>
+      </c>
+      <c r="F12">
+        <v>-0.02010482673509124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04254259107414891</v>
+        <v>-0.04289739762508971</v>
       </c>
       <c r="C13">
-        <v>0.04109866134519144</v>
+        <v>-0.003996329833075215</v>
       </c>
       <c r="D13">
-        <v>-0.01011406357228303</v>
+        <v>-0.04802520559002709</v>
       </c>
       <c r="E13">
-        <v>0.004371380839207109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0125179998527007</v>
+      </c>
+      <c r="F13">
+        <v>-0.01284161062566778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02777583733133044</v>
+        <v>-0.02232087826380616</v>
       </c>
       <c r="C14">
-        <v>0.000531383777397309</v>
+        <v>-0.01409959900114658</v>
       </c>
       <c r="D14">
-        <v>-0.01127888996880071</v>
+        <v>-0.03280823207607968</v>
       </c>
       <c r="E14">
-        <v>0.004313524344626416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01831709529433587</v>
+      </c>
+      <c r="F14">
+        <v>-0.01836007712127035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02434954268698217</v>
+        <v>-0.03141806024496583</v>
       </c>
       <c r="C15">
-        <v>0.02072764256668772</v>
+        <v>-0.005248171830684835</v>
       </c>
       <c r="D15">
-        <v>-0.005633038547720339</v>
+        <v>-0.04585669315397504</v>
       </c>
       <c r="E15">
-        <v>0.01877601127782508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.008140898143383438</v>
+      </c>
+      <c r="F15">
+        <v>-0.02942213707711836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09072638195388191</v>
+        <v>-0.07291943159879356</v>
       </c>
       <c r="C16">
-        <v>0.008448492695972205</v>
+        <v>-0.002925469038567689</v>
       </c>
       <c r="D16">
-        <v>-0.07195135316193138</v>
+        <v>-0.1201273764643882</v>
       </c>
       <c r="E16">
-        <v>0.05169895353179631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06312988247428404</v>
+      </c>
+      <c r="F16">
+        <v>-0.02731768230192352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02417850483000072</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003884876783980598</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01947637011047314</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.005911114427911505</v>
+      </c>
+      <c r="F18">
+        <v>0.01550807968301922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04940556267433018</v>
+        <v>-0.06041805093889264</v>
       </c>
       <c r="C20">
-        <v>-0.006373561236278955</v>
+        <v>-0.0004115938137989564</v>
       </c>
       <c r="D20">
-        <v>-0.04431673838988223</v>
+        <v>-0.07536198253182129</v>
       </c>
       <c r="E20">
-        <v>-0.002560484811329618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05487005398676158</v>
+      </c>
+      <c r="F20">
+        <v>-0.02756660441464052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0237846637617336</v>
+        <v>-0.03866229102287726</v>
       </c>
       <c r="C21">
-        <v>-0.007805552898415335</v>
+        <v>-0.006625492547631762</v>
       </c>
       <c r="D21">
-        <v>-0.00211670478532924</v>
+        <v>-0.03579629288074118</v>
       </c>
       <c r="E21">
-        <v>-0.02685181073768751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007652951315614605</v>
+      </c>
+      <c r="F21">
+        <v>0.01829645197318863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02984913040117443</v>
+        <v>-0.04339971439237465</v>
       </c>
       <c r="C22">
-        <v>-0.01831947569893013</v>
+        <v>-0.001058258653646646</v>
       </c>
       <c r="D22">
-        <v>0.03424117837163092</v>
+        <v>0.0003712515289781572</v>
       </c>
       <c r="E22">
-        <v>0.06807903049236676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02783429172523031</v>
+      </c>
+      <c r="F22">
+        <v>0.002668220914323767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03003213121189536</v>
+        <v>-0.04345201870408434</v>
       </c>
       <c r="C23">
-        <v>-0.01844742787400229</v>
+        <v>-0.001080190584276178</v>
       </c>
       <c r="D23">
-        <v>0.03365927407161187</v>
+        <v>0.0002454115677492297</v>
       </c>
       <c r="E23">
-        <v>0.06992246545087702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02818462178935434</v>
+      </c>
+      <c r="F23">
+        <v>0.002202911408337682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0956556856308247</v>
+        <v>-0.07944524376912165</v>
       </c>
       <c r="C24">
-        <v>0.01288508880125082</v>
+        <v>-0.003089756336962245</v>
       </c>
       <c r="D24">
-        <v>-0.07480717346494205</v>
+        <v>-0.1198658546345165</v>
       </c>
       <c r="E24">
-        <v>0.04135559597360624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0513944108191642</v>
+      </c>
+      <c r="F24">
+        <v>-0.02154529349215728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09643564407200515</v>
+        <v>-0.0846254747163963</v>
       </c>
       <c r="C25">
-        <v>0.007587744728274212</v>
+        <v>-0.005238034470582746</v>
       </c>
       <c r="D25">
-        <v>-0.06030940882070433</v>
+        <v>-0.1086239413852518</v>
       </c>
       <c r="E25">
-        <v>0.04697054320474525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0341302429216138</v>
+      </c>
+      <c r="F25">
+        <v>-0.02826955399223328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03670272934276277</v>
+        <v>-0.05460033432630623</v>
       </c>
       <c r="C26">
-        <v>-0.02892318932777645</v>
+        <v>-0.01451413926456803</v>
       </c>
       <c r="D26">
-        <v>0.005779791557737933</v>
+        <v>-0.04078799102882689</v>
       </c>
       <c r="E26">
-        <v>0.0008535122723867663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02682585645020766</v>
+      </c>
+      <c r="F26">
+        <v>0.009078414980289291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08341593925975645</v>
+        <v>-0.1435356895366138</v>
       </c>
       <c r="C28">
-        <v>-0.1483865826427588</v>
+        <v>-0.01685271470495665</v>
       </c>
       <c r="D28">
-        <v>0.277188649827962</v>
+        <v>0.264621665914737</v>
       </c>
       <c r="E28">
-        <v>0.02241890080630292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.07041114984207744</v>
+      </c>
+      <c r="F28">
+        <v>-0.02661875060741048</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02748793912849301</v>
+        <v>-0.02711943906389525</v>
       </c>
       <c r="C29">
-        <v>0.01144087519330653</v>
+        <v>-0.008306693810224733</v>
       </c>
       <c r="D29">
-        <v>-0.004283956680458272</v>
+        <v>-0.03166373582464775</v>
       </c>
       <c r="E29">
-        <v>0.00811217446079057</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01185639147336711</v>
+      </c>
+      <c r="F29">
+        <v>0.01209374574514738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1167314214418196</v>
+        <v>-0.06246545650890432</v>
       </c>
       <c r="C30">
-        <v>0.06343270169655064</v>
+        <v>-0.004376718583533664</v>
       </c>
       <c r="D30">
-        <v>-0.08512144999030737</v>
+        <v>-0.08725378394055688</v>
       </c>
       <c r="E30">
-        <v>0.03747429403391237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02378757515000223</v>
+      </c>
+      <c r="F30">
+        <v>-0.09856224691398233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0279033483834173</v>
+        <v>-0.04810555605353096</v>
       </c>
       <c r="C31">
-        <v>-0.0002959974613793802</v>
+        <v>-0.01501818238505032</v>
       </c>
       <c r="D31">
-        <v>-0.02731933233216399</v>
+        <v>-0.02629672793729847</v>
       </c>
       <c r="E31">
-        <v>0.01877065595246892</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02803152814264417</v>
+      </c>
+      <c r="F31">
+        <v>0.005626254120171188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06113734718241669</v>
+        <v>-0.04801355840559803</v>
       </c>
       <c r="C32">
-        <v>-0.007341757989250752</v>
+        <v>0.0006079753660275824</v>
       </c>
       <c r="D32">
-        <v>-0.03666077901997331</v>
+        <v>-0.03119100328992637</v>
       </c>
       <c r="E32">
-        <v>0.005958794482799977</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03013056975908246</v>
+      </c>
+      <c r="F32">
+        <v>-0.00664368794914781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1029337442862643</v>
+        <v>-0.08942827878402976</v>
       </c>
       <c r="C33">
-        <v>0.04290871768427631</v>
+        <v>-0.008477156372992897</v>
       </c>
       <c r="D33">
-        <v>-0.05804061588950293</v>
+        <v>-0.09747167865903318</v>
       </c>
       <c r="E33">
-        <v>0.09055541559556189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04694680156542007</v>
+      </c>
+      <c r="F33">
+        <v>-0.03959639367564072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0866342244168684</v>
+        <v>-0.06721742140465918</v>
       </c>
       <c r="C34">
-        <v>0.009772914740583304</v>
+        <v>-0.01194549709277098</v>
       </c>
       <c r="D34">
-        <v>-0.07072421208163174</v>
+        <v>-0.100359892983603</v>
       </c>
       <c r="E34">
-        <v>0.04692900424211573</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03522528520827835</v>
+      </c>
+      <c r="F34">
+        <v>-0.03794086182957315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01353028755913734</v>
+        <v>-0.02437396452728229</v>
       </c>
       <c r="C35">
-        <v>0.01575799344436924</v>
+        <v>-0.002303880361451247</v>
       </c>
       <c r="D35">
-        <v>-0.007346507543194485</v>
+        <v>-0.01144618287868904</v>
       </c>
       <c r="E35">
-        <v>0.004529124726443798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01102720755058136</v>
+      </c>
+      <c r="F35">
+        <v>-0.008950122466401663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02496133800126369</v>
+        <v>-0.02457837419277463</v>
       </c>
       <c r="C36">
-        <v>0.008543761296828311</v>
+        <v>-0.007575998221788262</v>
       </c>
       <c r="D36">
-        <v>0.00350754365994933</v>
+        <v>-0.03734395117726729</v>
       </c>
       <c r="E36">
-        <v>0.002981291567068924</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01695253587809159</v>
+      </c>
+      <c r="F36">
+        <v>-0.01370588273672873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006789688673944483</v>
+        <v>-0.001502109316037238</v>
       </c>
       <c r="C38">
-        <v>0.001851024662233538</v>
+        <v>-0.0002294463057096972</v>
       </c>
       <c r="D38">
-        <v>-0.003839085173147358</v>
+        <v>-0.000871230976066981</v>
       </c>
       <c r="E38">
-        <v>0.004191370484504513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001209193438705832</v>
+      </c>
+      <c r="F38">
+        <v>0.001046139923503653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1440314789942876</v>
+        <v>-0.1075820139691922</v>
       </c>
       <c r="C39">
-        <v>0.04693770012197453</v>
+        <v>-0.01660136740334853</v>
       </c>
       <c r="D39">
-        <v>-0.1150470664639962</v>
+        <v>-0.1553271682327923</v>
       </c>
       <c r="E39">
-        <v>0.07309471483478829</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06198530135593534</v>
+      </c>
+      <c r="F39">
+        <v>-0.02346307008577613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008080924627435655</v>
+        <v>-0.03712819507187989</v>
       </c>
       <c r="C40">
-        <v>0.005607843075371639</v>
+        <v>-0.007129394797471878</v>
       </c>
       <c r="D40">
-        <v>-0.02293152611047143</v>
+        <v>-0.03360348458575767</v>
       </c>
       <c r="E40">
-        <v>-0.01451043348127051</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.003093908293889021</v>
+      </c>
+      <c r="F40">
+        <v>0.01303371926582862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01895610125461655</v>
+        <v>-0.02630434522295041</v>
       </c>
       <c r="C41">
-        <v>-0.02618299606058202</v>
+        <v>-0.006519345066164894</v>
       </c>
       <c r="D41">
-        <v>-0.01009643726254729</v>
+        <v>-0.0114504453053226</v>
       </c>
       <c r="E41">
-        <v>0.007324350313583611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01256337335090191</v>
+      </c>
+      <c r="F41">
+        <v>0.008833540544384687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02791574085253586</v>
+        <v>-0.0401156109219437</v>
       </c>
       <c r="C43">
-        <v>-0.02925408854361744</v>
+        <v>-0.006618650091052837</v>
       </c>
       <c r="D43">
-        <v>-0.01666552918799498</v>
+        <v>-0.02154413062859669</v>
       </c>
       <c r="E43">
-        <v>0.0347444711999658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02491949520729884</v>
+      </c>
+      <c r="F43">
+        <v>0.01447446172612701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1378928033438378</v>
+        <v>-0.07590882595939995</v>
       </c>
       <c r="C44">
-        <v>0.07039248735420857</v>
+        <v>-0.02133828737716404</v>
       </c>
       <c r="D44">
-        <v>-0.1021350648423431</v>
+        <v>-0.09456724533920981</v>
       </c>
       <c r="E44">
-        <v>0.05386260736659618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07408473238644174</v>
+      </c>
+      <c r="F44">
+        <v>-0.1795612370183025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01384149422781738</v>
+        <v>-0.02248473749142136</v>
       </c>
       <c r="C46">
-        <v>-0.02336982928670175</v>
+        <v>-0.003432027930565552</v>
       </c>
       <c r="D46">
-        <v>0.00678689303020125</v>
+        <v>-0.01297059030266206</v>
       </c>
       <c r="E46">
-        <v>0.03462071018825136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02324498965735028</v>
+      </c>
+      <c r="F46">
+        <v>-0.002124346347962264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03673496415967779</v>
+        <v>-0.05157745095458199</v>
       </c>
       <c r="C47">
-        <v>-0.01096291984147126</v>
+        <v>-0.003198546793343656</v>
       </c>
       <c r="D47">
-        <v>-0.007121167800832448</v>
+        <v>-0.01359127249071877</v>
       </c>
       <c r="E47">
-        <v>-0.002150959375895886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02271345680327822</v>
+      </c>
+      <c r="F47">
+        <v>0.0416342927243626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03810918238971122</v>
+        <v>-0.0474290646971323</v>
       </c>
       <c r="C48">
-        <v>0.01214841036645734</v>
+        <v>-0.002636065994005758</v>
       </c>
       <c r="D48">
-        <v>0.003275232187825796</v>
+        <v>-0.05103990713034675</v>
       </c>
       <c r="E48">
-        <v>0.006277031414284633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004929068106580839</v>
+      </c>
+      <c r="F48">
+        <v>-0.009538993667845259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2234370172346355</v>
+        <v>-0.2030766182366102</v>
       </c>
       <c r="C49">
-        <v>-0.06318280889786061</v>
+        <v>-0.01766280044031475</v>
       </c>
       <c r="D49">
-        <v>-0.02763362365937188</v>
+        <v>0.009893803403718751</v>
       </c>
       <c r="E49">
-        <v>-0.01215759570559064</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03263678235383867</v>
+      </c>
+      <c r="F49">
+        <v>-0.02763720917695973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03737776980259468</v>
+        <v>-0.04807400482779801</v>
       </c>
       <c r="C50">
-        <v>-0.008551990486874841</v>
+        <v>-0.01104292682095878</v>
       </c>
       <c r="D50">
-        <v>-0.03151709364731755</v>
+        <v>-0.02596232729489389</v>
       </c>
       <c r="E50">
-        <v>0.01351807023537664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03006603337651573</v>
+      </c>
+      <c r="F50">
+        <v>-0.006244232887746357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.009318989072148712</v>
+        <v>-0.002135736287130803</v>
       </c>
       <c r="C51">
-        <v>-0.008496597119762691</v>
+        <v>-0.0005373371422375159</v>
       </c>
       <c r="D51">
-        <v>0.01435044609076292</v>
+        <v>0.002256120319844031</v>
       </c>
       <c r="E51">
-        <v>0.01640245281407409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-7.89974463211293e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004488136022432259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1316079487739334</v>
+        <v>-0.1450430317748292</v>
       </c>
       <c r="C52">
-        <v>0.06640889445643708</v>
+        <v>-0.01395683091264237</v>
       </c>
       <c r="D52">
-        <v>-0.06755762353434859</v>
+        <v>-0.05019252281846977</v>
       </c>
       <c r="E52">
-        <v>0.001425902678275974</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02434977838915918</v>
+      </c>
+      <c r="F52">
+        <v>-0.03484540420595143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1566794923212364</v>
+        <v>-0.1738905062473518</v>
       </c>
       <c r="C53">
-        <v>0.006951393253262186</v>
+        <v>-0.01685384943596275</v>
       </c>
       <c r="D53">
-        <v>-0.002603674594299048</v>
+        <v>-0.01030730225568591</v>
       </c>
       <c r="E53">
-        <v>-0.004863459169910501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03564950822548683</v>
+      </c>
+      <c r="F53">
+        <v>-0.06453191215899461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04816851658741125</v>
+        <v>-0.02179303397297383</v>
       </c>
       <c r="C54">
-        <v>0.002200318375457424</v>
+        <v>-0.01217578366726742</v>
       </c>
       <c r="D54">
-        <v>-0.02457678971006667</v>
+        <v>-0.03375343234697719</v>
       </c>
       <c r="E54">
-        <v>0.01626062932366726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0157030345283137</v>
+      </c>
+      <c r="F54">
+        <v>0.001620582345714925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08688163002702522</v>
+        <v>-0.1142447966066658</v>
       </c>
       <c r="C55">
-        <v>0.02674685084384371</v>
+        <v>-0.01549720030540521</v>
       </c>
       <c r="D55">
-        <v>-0.001659734192971036</v>
+        <v>-0.01051879077565629</v>
       </c>
       <c r="E55">
-        <v>0.04186556245218095</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03141357319616067</v>
+      </c>
+      <c r="F55">
+        <v>-0.04295866893006674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1591380983651717</v>
+        <v>-0.1775410571551043</v>
       </c>
       <c r="C56">
-        <v>0.01006944909133842</v>
+        <v>-0.01432211877732817</v>
       </c>
       <c r="D56">
-        <v>-0.04187799118878757</v>
+        <v>-0.00668749210522049</v>
       </c>
       <c r="E56">
-        <v>0.0256350142227004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04091183361401016</v>
+      </c>
+      <c r="F56">
+        <v>-0.04339221258800682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04177049816385171</v>
+        <v>-0.04651024766605918</v>
       </c>
       <c r="C58">
-        <v>-0.01660726773757289</v>
+        <v>-0.001477534039963074</v>
       </c>
       <c r="D58">
-        <v>0.002740784109010374</v>
+        <v>-0.06603413225137504</v>
       </c>
       <c r="E58">
-        <v>-0.01250602001061945</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02370431277362089</v>
+      </c>
+      <c r="F58">
+        <v>0.04268807455279632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1502825334749165</v>
+        <v>-0.1724343456915974</v>
       </c>
       <c r="C59">
-        <v>-0.1428887547947489</v>
+        <v>-0.01743818860960806</v>
       </c>
       <c r="D59">
-        <v>0.2334599270346078</v>
+        <v>0.2223578738089274</v>
       </c>
       <c r="E59">
-        <v>0.03365737266707318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04974782215433645</v>
+      </c>
+      <c r="F59">
+        <v>0.02712198712244154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2809294916077804</v>
+        <v>-0.2356407186650014</v>
       </c>
       <c r="C60">
-        <v>0.04143292733331096</v>
+        <v>0.004237221728224748</v>
       </c>
       <c r="D60">
-        <v>-0.09157548510422861</v>
+        <v>-0.04593611242676264</v>
       </c>
       <c r="E60">
-        <v>-0.06872396247694969</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01154276028976102</v>
+      </c>
+      <c r="F60">
+        <v>0.03192387995691857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.114699157546058</v>
+        <v>-0.08301669417657713</v>
       </c>
       <c r="C61">
-        <v>0.04382356137992841</v>
+        <v>-0.01268678921986375</v>
       </c>
       <c r="D61">
-        <v>-0.06631654885796272</v>
+        <v>-0.1155184283819838</v>
       </c>
       <c r="E61">
-        <v>0.05852124032711774</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04191852038792659</v>
+      </c>
+      <c r="F61">
+        <v>-0.01371435834729764</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1629200162818163</v>
+        <v>-0.1702907780150666</v>
       </c>
       <c r="C62">
-        <v>0.007210719293893302</v>
+        <v>-0.01791457327987724</v>
       </c>
       <c r="D62">
-        <v>-0.02357630820715277</v>
+        <v>-0.01047248002527219</v>
       </c>
       <c r="E62">
-        <v>0.009150457769978583</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.036663113289476</v>
+      </c>
+      <c r="F62">
+        <v>-0.02384398957454074</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04134250186372563</v>
+        <v>-0.04216422220146208</v>
       </c>
       <c r="C63">
-        <v>0.006118136010364233</v>
+        <v>-0.002659362757893861</v>
       </c>
       <c r="D63">
-        <v>0.003191043504747835</v>
+        <v>-0.05462915940883888</v>
       </c>
       <c r="E63">
-        <v>0.02189411623739843</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02112113462112767</v>
+      </c>
+      <c r="F63">
+        <v>-0.009257902756634479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09302394631231553</v>
+        <v>-0.1116678669815788</v>
       </c>
       <c r="C64">
-        <v>-0.003198807151836242</v>
+        <v>-0.01111952297148035</v>
       </c>
       <c r="D64">
-        <v>-0.01955669323564253</v>
+        <v>-0.04352585133752786</v>
       </c>
       <c r="E64">
-        <v>0.005680353553935854</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02113556491039498</v>
+      </c>
+      <c r="F64">
+        <v>-0.02618341517784342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1190260536629446</v>
+        <v>-0.1460461572637963</v>
       </c>
       <c r="C65">
-        <v>0.009526760153055766</v>
+        <v>-0.03124836156155721</v>
       </c>
       <c r="D65">
-        <v>0.02058791488338131</v>
+        <v>0.04288569975362785</v>
       </c>
       <c r="E65">
-        <v>0.0004559964502942158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0005926012189297474</v>
+      </c>
+      <c r="F65">
+        <v>-0.04691017357684455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1651943207134155</v>
+        <v>-0.1285647029716622</v>
       </c>
       <c r="C66">
-        <v>0.046695563128952</v>
+        <v>-0.01437402557025853</v>
       </c>
       <c r="D66">
-        <v>-0.1400523334646707</v>
+        <v>-0.1442678482342621</v>
       </c>
       <c r="E66">
-        <v>0.07996459978621875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06874294034827844</v>
+      </c>
+      <c r="F66">
+        <v>-0.02816748158640179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06921791608814017</v>
+        <v>-0.06200172749637203</v>
       </c>
       <c r="C67">
-        <v>0.03162029863518508</v>
+        <v>-0.002648984959626357</v>
       </c>
       <c r="D67">
-        <v>-0.00518617243460378</v>
+        <v>-0.05301392704925533</v>
       </c>
       <c r="E67">
-        <v>0.07342522946100978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01765149697250872</v>
+      </c>
+      <c r="F67">
+        <v>0.03010798807945252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07601551481478096</v>
+        <v>-0.1173281998450509</v>
       </c>
       <c r="C68">
-        <v>-0.1304033327808465</v>
+        <v>-0.0273411374290876</v>
       </c>
       <c r="D68">
-        <v>0.2414358126061218</v>
+        <v>0.2608030812566246</v>
       </c>
       <c r="E68">
-        <v>0.01378225604430199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08835825289809723</v>
+      </c>
+      <c r="F68">
+        <v>-0.02830433914485113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03351517260041489</v>
+        <v>-0.03905191821196721</v>
       </c>
       <c r="C69">
-        <v>0.007991552604931134</v>
+        <v>-0.0008492459015258518</v>
       </c>
       <c r="D69">
-        <v>0.01338797906733225</v>
+        <v>-0.009246642361933427</v>
       </c>
       <c r="E69">
-        <v>0.02728644619769376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02427619410426821</v>
+      </c>
+      <c r="F69">
+        <v>0.007492166579406873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02349460331543738</v>
+        <v>-0.06207400551985295</v>
       </c>
       <c r="C70">
-        <v>0.01059489326694087</v>
+        <v>0.02872459419535709</v>
       </c>
       <c r="D70">
-        <v>0.03409418332361679</v>
+        <v>-0.02998684600716089</v>
       </c>
       <c r="E70">
-        <v>0.02885602812197941</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04839284938298818</v>
+      </c>
+      <c r="F70">
+        <v>0.2468701780522208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.08932633860132388</v>
+        <v>-0.1365473414901466</v>
       </c>
       <c r="C71">
-        <v>-0.1379167547092821</v>
+        <v>-0.03168990085432494</v>
       </c>
       <c r="D71">
-        <v>0.2613587065696277</v>
+        <v>0.275105401423017</v>
       </c>
       <c r="E71">
-        <v>0.02569085225826707</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09783069839010823</v>
+      </c>
+      <c r="F71">
+        <v>-0.03393370349465098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1355986893858648</v>
+        <v>-0.1409230389869035</v>
       </c>
       <c r="C72">
-        <v>-0.0332464309312829</v>
+        <v>-0.02488562455411863</v>
       </c>
       <c r="D72">
-        <v>0.009235665475293437</v>
+        <v>-0.004477076945609329</v>
       </c>
       <c r="E72">
-        <v>0.01518846151744111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04400063072994454</v>
+      </c>
+      <c r="F72">
+        <v>-0.02822529023845203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2329726500463608</v>
+        <v>-0.2029868798605397</v>
       </c>
       <c r="C73">
-        <v>-0.01703417077244605</v>
+        <v>-0.01182843350799232</v>
       </c>
       <c r="D73">
-        <v>-0.03748580018453548</v>
+        <v>-0.01594843656122048</v>
       </c>
       <c r="E73">
-        <v>0.06449571138932908</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06498317596698022</v>
+      </c>
+      <c r="F73">
+        <v>-0.02294046747426269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1111974041504094</v>
+        <v>-0.09453766671086872</v>
       </c>
       <c r="C74">
-        <v>-0.008207688052258088</v>
+        <v>-0.01225889480102466</v>
       </c>
       <c r="D74">
-        <v>-0.04085371100680871</v>
+        <v>-0.02023854949583481</v>
       </c>
       <c r="E74">
-        <v>0.0317950375265242</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04852940933695839</v>
+      </c>
+      <c r="F74">
+        <v>-0.0488693688990473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1241837672712157</v>
+        <v>-0.1294433894587346</v>
       </c>
       <c r="C75">
-        <v>0.004257400444686018</v>
+        <v>-0.02655069794771514</v>
       </c>
       <c r="D75">
-        <v>-0.05161902686303192</v>
+        <v>-0.03388963004242595</v>
       </c>
       <c r="E75">
-        <v>0.01648835017333369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0610282775339718</v>
+      </c>
+      <c r="F75">
+        <v>-0.01210460389802674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01493875098865377</v>
+        <v>-0.003161867770625017</v>
       </c>
       <c r="C76">
-        <v>-0.009102918680786195</v>
+        <v>-0.0007609948397393363</v>
       </c>
       <c r="D76">
-        <v>0.01365583622022479</v>
+        <v>0.002186654022303602</v>
       </c>
       <c r="E76">
-        <v>0.0114559297848859</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004691600632896823</v>
+      </c>
+      <c r="F76">
+        <v>-0.003670363822716172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.082249704932157</v>
+        <v>-0.07819201817261913</v>
       </c>
       <c r="C77">
-        <v>0.05122649359511707</v>
+        <v>-0.008533213503373249</v>
       </c>
       <c r="D77">
-        <v>-0.1009173621393859</v>
+        <v>-0.1169182293600909</v>
       </c>
       <c r="E77">
-        <v>-0.007168422016506576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04008396465194054</v>
+      </c>
+      <c r="F77">
+        <v>-0.03404052340231672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09167898165722189</v>
+        <v>-0.1035030944648445</v>
       </c>
       <c r="C78">
-        <v>-0.114968209776135</v>
+        <v>-0.03983468580323053</v>
       </c>
       <c r="D78">
-        <v>-0.06062018361869474</v>
+        <v>-0.1181052595231742</v>
       </c>
       <c r="E78">
-        <v>0.1577766634140199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0820624266018247</v>
+      </c>
+      <c r="F78">
+        <v>-0.06014794093540737</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1402932036889077</v>
+        <v>-0.1641108206846041</v>
       </c>
       <c r="C79">
-        <v>-0.01716004694742066</v>
+        <v>-0.02058141380257362</v>
       </c>
       <c r="D79">
-        <v>-0.06164073650280797</v>
+        <v>-0.01915861758707899</v>
       </c>
       <c r="E79">
-        <v>0.002598043366119978</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.04990222798066423</v>
+      </c>
+      <c r="F79">
+        <v>-0.002827356541326475</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0844862880562112</v>
+        <v>-0.08080121569442472</v>
       </c>
       <c r="C80">
-        <v>0.05286475866948192</v>
+        <v>0.0007916976920105337</v>
       </c>
       <c r="D80">
-        <v>-0.06306196763473175</v>
+        <v>-0.05581840855659517</v>
       </c>
       <c r="E80">
-        <v>0.06280330418167181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03643917911342237</v>
+      </c>
+      <c r="F80">
+        <v>0.02294644450785284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1436944375511177</v>
+        <v>-0.1231054790863206</v>
       </c>
       <c r="C81">
-        <v>-0.001752158681447766</v>
+        <v>-0.03032435158321518</v>
       </c>
       <c r="D81">
-        <v>-0.0673649136270103</v>
+        <v>-0.01715405462282501</v>
       </c>
       <c r="E81">
-        <v>0.02759518872680486</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06045375781845514</v>
+      </c>
+      <c r="F81">
+        <v>-0.008179369001659444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1696015405476912</v>
+        <v>-0.1643568331309778</v>
       </c>
       <c r="C82">
-        <v>0.02418791831343638</v>
+        <v>-0.02255196325871684</v>
       </c>
       <c r="D82">
-        <v>-0.04047445363683997</v>
+        <v>-0.01189730381834092</v>
       </c>
       <c r="E82">
-        <v>0.02740880768801415</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03511093135319329</v>
+      </c>
+      <c r="F82">
+        <v>-0.06584662409798847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07998578904804399</v>
+        <v>-0.06236114502591631</v>
       </c>
       <c r="C83">
-        <v>0.03039780489095869</v>
+        <v>-0.003071947185695108</v>
       </c>
       <c r="D83">
-        <v>-0.04364571081657057</v>
+        <v>-0.05082648225927754</v>
       </c>
       <c r="E83">
-        <v>-0.04141898461689952</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005677946564602039</v>
+      </c>
+      <c r="F83">
+        <v>0.04066759055201064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07005606239641816</v>
+        <v>-0.05890632669726249</v>
       </c>
       <c r="C84">
-        <v>0.01028712875853484</v>
+        <v>-0.01063229175781913</v>
       </c>
       <c r="D84">
-        <v>0.003757970722264686</v>
+        <v>-0.0649822293958249</v>
       </c>
       <c r="E84">
-        <v>-0.003794804546819954</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004163349685149513</v>
+      </c>
+      <c r="F84">
+        <v>-0.01052139800410844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1292828821135537</v>
+        <v>-0.1388426670617328</v>
       </c>
       <c r="C85">
-        <v>-0.003973097749968775</v>
+        <v>-0.02632156714854276</v>
       </c>
       <c r="D85">
-        <v>-0.03142438782378514</v>
+        <v>-0.01454320393597089</v>
       </c>
       <c r="E85">
-        <v>0.01585968653645973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04159211345466166</v>
+      </c>
+      <c r="F85">
+        <v>-0.04312495988995695</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1336296220625225</v>
+        <v>-0.09415619743774846</v>
       </c>
       <c r="C86">
-        <v>-0.2609185034051802</v>
+        <v>0.006192199584262773</v>
       </c>
       <c r="D86">
-        <v>-0.1849054831806069</v>
+        <v>-0.02453093316373001</v>
       </c>
       <c r="E86">
-        <v>-0.8895442891933659</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1586624487033929</v>
+      </c>
+      <c r="F86">
+        <v>0.8882807352773421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1132359886009633</v>
+        <v>-0.09567211060183474</v>
       </c>
       <c r="C87">
-        <v>0.1010902640714473</v>
+        <v>-0.02203973957784827</v>
       </c>
       <c r="D87">
-        <v>-0.03428113208278009</v>
+        <v>-0.0923058037717792</v>
       </c>
       <c r="E87">
-        <v>0.0150483699782182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05459398304108883</v>
+      </c>
+      <c r="F87">
+        <v>-0.07485864097653562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04737757535771175</v>
+        <v>-0.06087853073379337</v>
       </c>
       <c r="C88">
-        <v>-0.005904803966484616</v>
+        <v>-0.002445044661045741</v>
       </c>
       <c r="D88">
-        <v>-0.03042551375534761</v>
+        <v>-0.05372196262925216</v>
       </c>
       <c r="E88">
-        <v>0.038634790341983</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0275133444977082</v>
+      </c>
+      <c r="F88">
+        <v>-0.007744546641936314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1371526463556316</v>
+        <v>-0.1360319428342299</v>
       </c>
       <c r="C89">
-        <v>-0.1852196177885701</v>
+        <v>-0.009636616360100299</v>
       </c>
       <c r="D89">
-        <v>0.3272053441802468</v>
+        <v>0.2538282333228583</v>
       </c>
       <c r="E89">
-        <v>0.01030584746010544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.09150238966959441</v>
+      </c>
+      <c r="F89">
+        <v>-0.01363454258951655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1018919507766112</v>
+        <v>-0.1478961860920495</v>
       </c>
       <c r="C90">
-        <v>-0.1416946292061638</v>
+        <v>-0.02741765195176195</v>
       </c>
       <c r="D90">
-        <v>0.2534689946171178</v>
+        <v>0.265678093010458</v>
       </c>
       <c r="E90">
-        <v>0.01087243039119578</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1104071783546055</v>
+      </c>
+      <c r="F90">
+        <v>-0.01594366838669837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08735325724615321</v>
+        <v>-0.1193907643176436</v>
       </c>
       <c r="C91">
-        <v>-0.002545233964868114</v>
+        <v>-0.01695198480779839</v>
       </c>
       <c r="D91">
-        <v>-0.03567552906317961</v>
+        <v>0.009060328451196701</v>
       </c>
       <c r="E91">
-        <v>-0.008039114627037568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05840956847388225</v>
+      </c>
+      <c r="F91">
+        <v>0.01498340127386377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1209841077190856</v>
+        <v>-0.1498981926828956</v>
       </c>
       <c r="C92">
-        <v>-0.1418123638690843</v>
+        <v>-0.01903463214464789</v>
       </c>
       <c r="D92">
-        <v>0.2884911328787701</v>
+        <v>0.2921613093775087</v>
       </c>
       <c r="E92">
-        <v>0.003046334787021063</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1052189711626257</v>
+      </c>
+      <c r="F92">
+        <v>-0.008377801512410084</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1014899510890379</v>
+        <v>-0.1519477512159247</v>
       </c>
       <c r="C93">
-        <v>-0.1594352741026585</v>
+        <v>-0.02345614870546624</v>
       </c>
       <c r="D93">
-        <v>0.2833466971261156</v>
+        <v>0.2652589626963278</v>
       </c>
       <c r="E93">
-        <v>-0.002729338501187359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07864743806765534</v>
+      </c>
+      <c r="F93">
+        <v>-0.01712001623099243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1460661562689514</v>
+        <v>-0.1326021601003091</v>
       </c>
       <c r="C94">
-        <v>-0.00285301409648204</v>
+        <v>-0.02364367488848658</v>
       </c>
       <c r="D94">
-        <v>-0.0407789001597267</v>
+        <v>-0.04528002731587068</v>
       </c>
       <c r="E94">
-        <v>0.06423051420779688</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06110610246195015</v>
+      </c>
+      <c r="F94">
+        <v>-0.03263944152681522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1151903956435028</v>
+        <v>-0.1260198576502402</v>
       </c>
       <c r="C95">
-        <v>0.002671709088086721</v>
+        <v>-0.004785241776926379</v>
       </c>
       <c r="D95">
-        <v>-0.04764142278028637</v>
+        <v>-0.09051000301319041</v>
       </c>
       <c r="E95">
-        <v>0.04085938281564966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04510421925164484</v>
+      </c>
+      <c r="F95">
+        <v>0.01001301469814145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01519185489753692</v>
+        <v>-0.09910160610159696</v>
       </c>
       <c r="C96">
-        <v>0.002041891985728416</v>
+        <v>0.9887958400099726</v>
       </c>
       <c r="D96">
-        <v>-0.000326425296838741</v>
+        <v>0.03494680953003331</v>
       </c>
       <c r="E96">
-        <v>0.002351220693747897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05782526536780838</v>
+      </c>
+      <c r="F96">
+        <v>-0.04423774305971811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1716874446042136</v>
+        <v>-0.1906146444577971</v>
       </c>
       <c r="C97">
-        <v>-0.03630846438753683</v>
+        <v>0.009210268669333188</v>
       </c>
       <c r="D97">
-        <v>-0.03916723812568654</v>
+        <v>0.01846258743174856</v>
       </c>
       <c r="E97">
-        <v>0.04042060349373192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01121207845422675</v>
+      </c>
+      <c r="F97">
+        <v>0.1285299571898854</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2527336866435902</v>
+        <v>-0.2053549980917316</v>
       </c>
       <c r="C98">
-        <v>0.01596408150152977</v>
+        <v>-0.007300895342768766</v>
       </c>
       <c r="D98">
-        <v>0.04097902574891916</v>
+        <v>-0.01030487647092026</v>
       </c>
       <c r="E98">
-        <v>-0.1053903637022875</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09577804786077808</v>
+      </c>
+      <c r="F98">
+        <v>0.1089963150303386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0474599777778404</v>
+        <v>-0.05564256413840573</v>
       </c>
       <c r="C99">
-        <v>-0.017284230077298</v>
+        <v>0.004277877727022658</v>
       </c>
       <c r="D99">
-        <v>-0.003321423374155396</v>
+        <v>-0.03739914168802701</v>
       </c>
       <c r="E99">
-        <v>0.04593027064694379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02504005964344212</v>
+      </c>
+      <c r="F99">
+        <v>-0.003943233881821729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1298468309905003</v>
+        <v>-0.1226957694148562</v>
       </c>
       <c r="C100">
-        <v>0.8142049026106954</v>
+        <v>0.05199894769203642</v>
       </c>
       <c r="D100">
-        <v>0.4229825544963526</v>
+        <v>-0.3503465132972834</v>
       </c>
       <c r="E100">
-        <v>-0.2658111010327286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8920968158153971</v>
+      </c>
+      <c r="F100">
+        <v>0.08453943737651853</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02716740947834896</v>
+        <v>-0.02704895347015763</v>
       </c>
       <c r="C101">
-        <v>0.01186097517478669</v>
+        <v>-0.008314016201879822</v>
       </c>
       <c r="D101">
-        <v>-0.004510866001935922</v>
+        <v>-0.03136555700045968</v>
       </c>
       <c r="E101">
-        <v>0.008692036359689731</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01137942933290633</v>
+      </c>
+      <c r="F101">
+        <v>0.01372374811557036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
